--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_3.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_3.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A150"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,1055 +440,5317 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>在创建群组中，完成步骤3后：在不需要对方同意的情况下，就能将对方拉进自己创建的群组中。</t>
+          <t>问题描述：群名称输入框显示错误，提示信息与预期不符。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>群 名称 输入框 错误 提示信息 预期 不符</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>创建入群条件为
-问题描述：在尝试创建一个新群组时，系统未能正确识别和实施所设置的入群条件。这可能导致新成员无法加入群组，或者加入了不符合设定条件的用户。</t>
+          <t>该图像显示了一个搜索界面，其中包含多个群组名称和对应的人数。问题在于搜索功能似乎无法正确展示结果，因为“ceshi”这个群组的名称被错误地重复显示了四次，而实际上只有两个相关的群组存在。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>搜索 界面 包含 多个 群组 名称 对应 人数 搜索 无法 正确 展示 ceshi 群组 名称 错误 重复 四次 实际上 两个 相关 群组</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>在群组管理功能中，当尝试添加一个已经存在于群组的成员时，系统未能成功执行此操作。</t>
+          <t>该应用程序在创建群组时存在一个明显的bug。当尝试创建两个具有相同名称和相同成员的群组时，系统未能正确检测到群组已存在的情况，导致两个相同的群组被创建。这可能会导致用户的困扰，因为他们无法区分这两个相同的群组。此外，这种情况还可能导致数据冗余或其他未预期的问题。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>应用程序 创建 群组 明显 创建 两个 具有 相同 名称 相同 成员 群组 系统 未能 正确 检测 群组 情况 两个 相同 群组 创建 困扰 无法 区分 两个 相同 群组 情况 数据 冗余 未 预期</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>该图像显示了一个搜索界面，其中包含多个群组名称和对应的人数。问题在于搜索功能似乎无法正确展示结果，因为“ceshi”这个群组的名称被错误地重复显示了四次，而实际上只有两个相关的群组存在。</t>
+          <t>该问题描述了一个软件功能错误，即在相同的联系人和用户的情况下，软件允许创建两个不同的群聊。尽管两个群聊的成员和目的都是相同的，但群聊的名称不同。这可能导致用户混淆，并可能影响群聊的管理和使用。此问题需要软件开发人员注意，以确保在类似情况下只有一个群聊被创建。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>软件 错误 相同 联系人 情况 软件 允许 创建 两个 不同 群聊 两个 群聊 成员 目的 相同 群聊 名称 不同 混淆 群聊 管理 软件 开发人员 注意 确保 类似 情况 群聊 创建</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>打开搜索群组是下面没有推荐群组功能；</t>
+          <t>根据问题描述和对应的图片，这个bug表现为：在群组成功创建并修改名称后，非群主的成员无法对群名称进行修改或请求加入群策略。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>对应 图片 表现 群组 成功 创建 修改 名称 非 群主 成员 无法 对群 名称 进行 修改 请求 加入 群 策略</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>在群组设置中，当用户被踢出群聊后，他们仍然能够在消息页面上看到该群组。这可能导致一些混淆，因为被移除的成员本不应该能够看到群组的相关信息。</t>
+          <t>当用户发起群聊，进入搜索和群名设置，人员和群名全部重复，应用没有提示重复创建，而是重复建立多个相同群组</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>发起 群聊 进入 搜索 群名 设置 人员 群名 重复 应用 没有 提示 重复 创建 重复 建立 多个 相同 群组</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>该应用程序在用户退出群组后再次加入时，无法正确更新群组信息。当用户重新加入已退出的群组时，他们仍然可以看到之前已退出期间的群组消息和活动，这可能导致混淆并影响用户的使用体验。</t>
+          <t>该软件的群聊功能存在明显的设计缺陷。在“我的群聊”列表中，多个群聊的名称相同，如“大桥”和“gduit测试1”，这导致了用户无法通过名称来区分相同的群聊。由于缺乏区分标识，用户可能会误入错误的群聊，从而影响沟通效率和用户体验。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>群聊 明显 设计 缺陷 群聊 列表 多个 群聊 名称 相同 大桥 gduit 无法 名称 区分 相同 群聊 缺乏 区分 标识 误入 错误 群聊 沟通 效率</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该应用程序在创建群组时存在一个明显的bug。当尝试创建两个具有相同名称和相同成员的群组时，系统未能正确检测到群组已存在的情况，导致两个相同的群组被创建。这可能会导致用户的困扰，因为他们无法区分这两个相同的群组。此外，这种情况还可能导致数据冗余或其他未预期的问题。</t>
+          <t>在群组名称过长，导致超出显示范围的情况下，该软件通过省略号来代替未完全显示的群组名称。然而，对于其他群成员来说，他们只能看到部分显示的群名，而非完整的群名。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>群组 名称 过长 超出 范围 情况 省略号 代替 未 完全 群组 名称 群 成员 只能 看到 部分 群名 非 完整 群名</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>在新建群组的过程中，系统未能执行适当的验证步骤，以确保新群组与现有群组之间的差异。具体来说，当尝试创建具有相同群主和成员的群组时，系统并未提供任何提示或警告，表明了“是否新建”的问题。</t>
+          <t>该软件在用户尝试创建群组时遇到了一个bug。当用户将群名称设置为空或者群名称超过64个字符，并点击“确定”按钮时，创建群组的操作并未成功完成，但系统并没有提供任何错误提示或警告信息，导致用户无法得知问题的具体原因。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>创建 群组 遇到 群 名称 设置 为空 群 名称 超过 64 个字符 点击 确定 按钮 创建 群组 并未 成功 完成 系统 没有 提供 错误 提示 警告 信息 无法 得知 具体 原因</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>该软件在创建群组时没有提供适当的一次性添加好友的提示。用户在选择好友后，应立即得到提示，而不是在完成群组创建后才给出提示。这导致用户必须返回前面的步骤去取消选择某些人，然后再次进入创建群组的操作，给用户带来了不便。</t>
+          <t>该bug描述如下：在创建群聊的过程中，当用户在选择了好友之后进入填写群名称页面。如果用户在不填写群名称的情况下直接点击确认按钮，系统并未给予用户任何提示信息表明“请填写群名称”。此功能缺陷可能导致用户体验不佳，无法及时知道必须填写群名称才能成功创建群聊。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>创建 群聊 过程 选择 好友 之后 进入 填写 群 名称 页面 填写 群 名称 情况 点击 确认 按钮 系统 并未 给予 提示信息 表明 请 填写 群 名称 缺陷 不佳 无法 及时 知道 必须 填写 群 名称 成功 创建 群聊</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>在搜索群功能中，当用户没有输入任何内容时，期望的界面显示是显示热门推荐的群组列表。但在实际测试中，发现在没有任何输入的情况下，下方并没有显示任何推荐的群组，导致用户无法看到预期的内容展示。这是一个明显的界面与功能不符的问题。</t>
+          <t>这是一个软件功能错误。当用户在群聊设置中选择了40个用户并进入填写群名称页面后，他们期望能够成功创建一个新的群聊。然而，当前情况是，尽管他们已经填写了群名称并点击了确认按钮，但系统并没有执行新建群聊的操作，而是停留在当前的填写群名称的页面，导致用户无法继续操作，这显然是一个严重的功能问题，可能会对用户体验造成负面影响。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>软件 错误 群聊 设置 选择 40 进入 填写 群 名称 页面 期望 能够 成功 创建 新 群聊 当前情况 填写 群 名称 点击 确认 按钮 系统 没有 执行 新建 群聊 停留 当前 填写 群 名称 页面 无法 继续 显然 严重 造成 负面影响</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>该软件在群管理功能上存在缺陷。具体来说，当用户尝试在第三方应用程序或分享到其他群组时，只有群主能够复制群号码，而普通成员无法执行此操作。这一设计限制了群组信息的共享能力，导致用户无法轻松地将信息从一个群转移到另一个群，从而影响了软件的社交交互功能和用户体验。</t>
+          <t>该软件在填写群名称时存在一个bug，用户无法通过粘贴的方式输入汉字。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>填写 群 名称 无法 粘贴 方式 输入 汉字</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>根据问题描述和对应的图片，这个bug表现为：在群组成功创建并修改名称后，非群主的成员无法对群名称进行修改或请求加入群策略。</t>
+          <t>这个软件在群组名称和用户名称部分没有实施关键字过滤，这可能导致了软件被用于非法目的。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>软件 群组 名称 名称 部分 没有 实施 关键字 过滤 软件 用于 非法 目的</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>在“我的群组”页面中，当用户尝试通过搜索框输入数字进行群组搜索时，系统返回了与输入数字不匹配的群组名称。例如，用户可能会输入“1235”，但系统返回的群组名称却与“1235”无关。这可能导致用户难以找到他们想要的群组，从而降低了用户体验。</t>
+          <t>在创建群的界面，当用户试图创建一个已存在的同名群时，系统没有提供任何提示信息，而是直接允许了新群的创建。这导致了两个具有相同名称、成员和权限的群同时存在，这不符合用户的预期和使用习惯。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>创建 群 界面 试图 创建 同名 群时 系统 没有 提供 提示信息 允许 新群 创建 两个 具有 相同 名称 成员 权限 群 符合 预期 习惯</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>在有网络连接的情况下，用户进入群组后断开了网络。当他们试图在搜索框中查找一个他们并未加入的群组时，系统并未显示“网络断开”的提示信息，而是直接显示“无相关结果”。</t>
+          <t>该软件的群组创建功能存在缺陷，具体表现为群名称的限制设置不合理。根据问题描述，当前的设置允许用户输入任何字符来创建群组，而不仅仅是字母和数字。这导致了特殊字符也可以被用于创建群组，可能导致一些不可预见的问题或困扰。例如，如果允许使用特殊字符作为群名，可能会导致名称混淆或难以识别。此外，这样的设计也可能会给用户带来误导，让他们误以为特殊字符是可以接受的输入。综上所述，这个bug涉及到群组创建功能的合理性和用户体验方面，需要进一步的优化和改进。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>群组 创建 缺陷 具体表现 为群 名称 限制 设置 不合理 当前 设置 允许 输入 字符 创建 群组 不仅仅 字母 数字 特殊字符 用于 创建 群组 不可 预见 困扰 允许 特殊字符 群名 名称 混淆 难以 识别 设计 带来 误导 误以为 特殊字符 接受 输入 涉及 群组 创建 合理性 方面 进一步 优化 改进</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>问题描述：在群组的设置页面中，当有好友退出该群组时，页面上并未显示相应的提示或变化。</t>
+          <t>在群组搜索功能中，当用户输入数字进行查找时，系统错误地展示了包含该数字的群组名称。这意味着即使用户输入的数字并不存在于任何群组的名称中，系统仍然返回了匹配的结果。这显然违反了用户的期望，可能导致用户混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>群组 搜索 输入 数字 进行 查找 系统 错误 展示 包含 数字 群组 名称 意味着 输入 数字 群组 名称 系统 仍然 返回 匹配 显然 违反 期望 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>这个软件界面显示了用户在操作某些功能后可以无需联系人的同意直接进入群组，这与预期的功能不符。通常，进入一个群组前需要得到该群组管理员或成员的批准。这里的问题可能是软件的一个bug，导致用户可以直接进入而没有经过正常的验证流程。</t>
+          <t>在群组设置中，群主尝试修改群的名称。然而，当修改完成后，只有在进入“群组设置”页面时才能看到新的群名称，而在聊天界面中，群名称并未更新，仍显示为旧的名称。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>群组 设置 群主 修改 群 名称 修改 完成 进入 群组 设置 页面 看到 新 群 名称 聊天 界面 群 名称 并未 更新 旧 名称</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>在群组名称过长，导致超出显示范围的情况下，该软件通过省略号来代替未完全显示的群组名称。然而，对于其他群成员来说，他们只能看到部分显示的群名，而非完整的群名。</t>
+          <t>图中显示了一个手机界面，其中以“q”开头的几个群都是同一个用户邀请的。然而，系统没有能够正确识别出这些群是由同一个用户创建的，导致了重复创建的问题。此外，那些不是用户自己创建的群也被归类在了“我的群组”中。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>图中 手机 界面 q 开头 几个 群 同一个 邀请 系统 没有 能够 正确 识别 出 群是 同一个 创建 重复 创建 创建 群 归类 群组</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>在群组中，当组员更新他们的个人信息（如头像和名称）时，这些更改并未实时反映到群组界面上。尽管成员已经更新了他们的资料，但在群组内，他们显示的仍然是初始的信息，没有跟随最新的变动。</t>
+          <t>创建群聊时，不可在没有添加成员的情况下创建。（不可创建空群）</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>创建 群聊 不可 没有 添加 成员 情况 创建 不可 创建 空群</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>在个人信息应用中，当用户尝试修改他们的信息后，这些变更似乎没有实时地更新到群组或其他相关功能中。尽管用户已经进行了信息的修改，但在进行群组互动时，如加入新群组或在现有群组中进行操作，用户的个人资料仍然显示为旧的信息。这可能导致了用户体验上的不一致和混淆。</t>
+          <t>该应用在新建群组时，未对用户输入的群名称进行适当的验证和提示。首先，应用没有明确规定群名称的长度限制，这可能导致用户创建过长或过短的群名称，影响其他用户的使用体验。其次，应用没有明确说明群名称的命名规则，使得用户可能创建不符合平台或社区规定的名称，从而违反了应用的使用协议。最后，当用户输入的群名称不合法时，应用并未给出明确的提示或警告，这可能会导致用户误认为可以随意输入任何内容，而忽视了对其他用户的尊重和平台的规范。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>应用 新建 群组 未 输入 群 名称 进行 适当 验证 提示 应用 没有 明确规定 群 名称 长度 限制 创建 过长 短 群 名称 应用 没有 明确 说明 群 名称 命名 规则 创建 符合 平台 社区 规定 名称 违反 应用 协议 最后 输入 群 名称 合法 应用 并未 给出 明确 提示 警告 误认为 随意 输入 内容 忽视 尊重 平台 规范</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>在群组搜索功能中，用户无法找到他们想要的目标群组。</t>
+          <t>该应用程序在创建群组时，没有提供关于群名称合法性的提示或样例。用户输入的名称可能会被立即接受，而不经过任何验证或示例展示。这可能会导致用户创建不符合平台规定的名称，从而引发潜在的问题或争议。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>应用程序 创建 群组 没有 提供 群 名称 合法性 提示 或样 例 输入 名称 立即 接受 验证 示例 展示 创建 符合 平台 规定 名称 引发 潜在 争议</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>该软件在用户尝试创建群组时遇到了一个bug。当用户将群名称设置为空或者群名称超过64个字符，并点击“确定”按钮时，创建群组的操作并未成功完成，但系统并没有提供任何错误提示或警告信息，导致用户无法得知问题的具体原因。</t>
+          <t>在进入聊天界面并点击群组图标后，进入“我的群组”界面。在该界面右上角点击三道杠图标以发起群聊。通过重复步骤5到8，可以成功创建群组，名称为“123”。然而，当尝试再次创建具有相同名称的新群组时，系统未能给出预期的提示信息“该群已创建，请更换群名称”。相反，测试者能够无障碍地创建具有相同名称的群组。这表明系统在处理群组名称重复的情况时存在缺陷。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>进入 聊天 界面 点击 群组 图标 进入 群组 界面 界面 右上角 点击 三道 杠 图标 发起 群聊 重复 成功 创建 群组 名称 123 再次 创建 具有 相同 名称 新 群组 系统 未能 给出 预期 提示信息 该群 创建 请 更换 群 名称 相反 测试者 能够 无障碍 创建 具有 相同 名称 群组 表明 系统 处理 群组 名称 重复 情况 缺陷</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>这个软件在群组名称和用户名称部分没有实施关键字过滤，这可能导致了软件被用于非法目的。</t>
+          <t>在朋友页面的右上角，当用户选择“发起群聊”功能后，系统未能有效地检测到已创建的同名群聊，导致用户在创建另一个具有相同名称的群聊时，系统没有给出重复的提示。这可能导致了群聊命名的混乱和不便。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>朋友 页面 右上角 选择 发起 群聊 系统 未能 有效 检测 创建 同名 群聊 创建 具有 相同 名称 群聊 系统 没有 给出 重复 提示 群聊 命名 混乱 不便</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>在创建群的界面，当用户试图创建一个已存在的同名群时，系统没有提供任何提示信息，而是直接允许了新群的创建。这导致了两个具有相同名称、成员和权限的群同时存在，这不符合用户的预期和使用习惯。</t>
+          <t>该软件在群名称管理方面存在逻辑错误，允许用户添加具有相同名称的群组。当尝试创建或添加与现有群组同名的新群组时，系统并未提供任何提示信息，表明了这一冲突。这违反了软件的设计原则和预期功能，可能导致用户混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>群 名称 管理 方面 逻辑 错误 允许 添加 具有 相同 名称 群组 创建 添加 现有 群组 同名 新 群组 系统 并未 提供 提示信息 表明 冲突 违反 软件 设计 原则 预期 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>该应用程序在搜索功能上存在缺陷，用户无法通过关键字“乱七八糟群”找到他们创建的相应群组。</t>
+          <t>该图片显示了一个手机聊天界面，其中群名称以空格开头，这违反了某些应用程序的设计规则，因为许多应用程序的群组名称不允许以空格开头。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>图片 手机 聊天 界面 群 名称 空格 开头 违反 应用程序 设计 规则 应用程序 群组 名称 允许 空格 开头</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，用户无法选择或分类群组。当尝试创建一个新的群组时，下拉菜单似乎失效了，没有提供任何类别供用户选择。此外，创建过程中的界面元素也没有提供任何关于如何进行分类的信息或指导。这可能会导致用户在尝试创建群组时感到困惑和挫败。</t>
+          <t>1.步骤重现
+     (1)进入群聊界面。
+     (2)搜索群名称
+     (3)输入群名称23。
+2.期望结果
+    自己所搜索的关键字排在第一，便于查找。
+3.实际结果
+     自己所要找的群名称却排在最后。不便于查询。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>. 重现 
+           ( ) 进入 群聊 界面 
+           ( ) 搜索 群 名称 
+           ( ) 输入 群 名称 23 
+ . 期望 
+         搜索 关键字 排 第一 查找 
+ . 
+           所要 找 群 名称 却排 最后 查询</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>创建群组时设置问题加入，第二方加入时，群主同意或者拒绝，第二方无法收到反馈。</t>
+          <t>在这张图片中，我们可以看到一个手机屏幕截图，显示了一个群聊界面。问题描述中提到“群名称无法显示全部”，这可能意味着群聊的名称在某些情况下没有完全展示出来。从图片中可以看出，部分群聊名称被截断了，只显示了部分字符，而其余的部分则被省略了。这种情况可能会导致用户难以识别或完整地看到群聊的名称。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>图片 看到 手机 屏幕 截图 群聊 界面 提到 群 名称 无法 意味着 群聊 名称 情况 没有 完全 展示 图片 看出 部分 群聊 名称 截断 部分 字符 部分 省略 情况 难以 识别 完整 看到 群聊 名称</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>该软件的群组创建功能存在缺陷，具体表现为群名称的限制设置不合理。根据问题描述，当前的设置允许用户输入任何字符来创建群组，而不仅仅是字母和数字。这导致了特殊字符也可以被用于创建群组，可能导致一些不可预见的问题或困扰。例如，如果允许使用特殊字符作为群名，可能会导致名称混淆或难以识别。此外，这样的设计也可能会给用户带来误导，让他们误以为特殊字符是可以接受的输入。综上所述，这个bug涉及到群组创建功能的合理性和用户体验方面，需要进一步的优化和改进。</t>
+          <t>问题描述：在尝试建立群组时，用户只能输入群组名称，但系统并未提供任何关于群组名称长度的提示信息。当用户创建群组时，他们可能不清楚群组名称的最大允许字符数，这可能导致无法成功创建群组或需要多次尝试才能找到合适的名称长度。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>建立 群组 只能 输入 群组 名称 系统 并未 提供 群组 名称 长度 提示信息 创建 群组 清楚 群组 名称 最大 允许 字符 数 无法 成功 创建 群组 多次 找到 合适 名称 长度</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>在群组搜索功能中，当用户输入数字进行查找时，系统错误地展示了包含该数字的群组名称。这意味着即使用户输入的数字并不存在于任何群组的名称中，系统仍然返回了匹配的结果。这显然违反了用户的期望，可能导致用户混淆和不便。</t>
+          <t>该问题描述了一个软件界面上关于群名称设置的显示问题。在界面中，群名称的要求字与字符的描述不清晰，导致用户难以理解如何正确设置群的名称。图片展示了这个问题的具体界面，其中相关文字说明模糊不清，无法为用户提供明确的指导。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>软件 界面 群 名称 设置 界面 群 名称 要求 字 字符 清晰 难以 理解 正确 设置 群 名称 图片 展示 具体 界面 相关 文字说明 模糊不清 无法 提供 明确 指导</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>在我的群组里，如果要新增群聊需要点击右上角，加入群才可以，如果第一次使用的用户可能会找不到这个入口，可以在右下角添加一个“加号”的标志，这样就一目了然了</t>
+          <t>在创建群组的过程中，当用户尝试使用已经存在的群名称进行创建时，系统没有给予明确的反馈提示，导致用户无法区分当前操作的群组是否已存在。这可能会导致用户重复创建相同的群组，从而造成混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 群 名称 进行 创建 系统 没有 给予 明确 反馈 提示 无法 区分 当前 群组 是否 重复 创建 相同 群组 造成 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>在创建群组并邀请好友的过程中，存在一个明显的bug。即使没有收到被邀请人的同意确认，他们仍然被直接拉入群组中。这种情况违反了群组管理的基本原则，即只有得到成员的明确同意，他们才能被加入某个群组。这种未经授权的添加行为可能导致不必要的麻烦，例如未征得同意的人可能对群组的内容或活动持有不同的观点，从而引发冲突。此外，这也可能会侵犯那些不愿意加入群组的人的权利。</t>
+          <t>问题描述：
+该软件在创建群组时，用户成功输入了群名称并填写了相关信息后保存。但在输出反馈中，没有提供重名提醒导致创建失败的信息。这意味着即使两个群的名称重复，系统也会默认为一个群创建成功，而不会给出任何提示或警告。这样的bug可能会导致用户无意中创建了多个相同名称的群组，给用户带来不便。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 创建 群组 成功 输入 群 名称 填写 相关 信息 保存 输出 反馈 没有 提供 重名 提醒 创建 失败 信息 意味着 两个 群 名称 重复 系统 默认 群 创建 成功 不会 给出 提示 警告 无意 创建 多个 相同 名称 群组 带来 不便</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，设置的“不允许任何人加入该群”的限制并未被严格执行。尽管群主设置了此项限制，但群主仍然能够随意邀请他人加入，而不需要对方的同意。同时，新加入的成员也可以无视这一设置，自由地邀请其他人加入，无需征得原设置者的同意。这违反了用户在创建群组时设定的规则，导致群组管理混乱。</t>
+          <t>该应用程序存在一个bug，导致在创建了使用特定群名称“ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh”的群后，用户仍然可以使用相同的群名来创建新的群。这违反了正常的群组命名规则，可能导致混淆和重复的群组。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>应用程序 创建 特定 群 名称 ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh 群后 仍然 相同 群名 创建 新 群 违反 正常 群组 命名 规则 混淆 重复 群组</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>问题描述：在尝试邀请多个好友加入某个群组时，当这些好友不是通过用户自己加入该群组时，系统不显示这些好友已经加入了该群组。这导致用户无法看到他们已经加入了该群组的提示，从而可能导致用户错误地选择并尝试邀请他们，随后系统会给出“该用户已加入群”的错误提示。</t>
+          <t>该应用程序在创建重名群组时没有提供任何警告或提示，导致用户可能无意中创建了与现有群组名称相同的新群组。这可能会导致混淆和不便，因为没有明确的反馈机制来通知用户他们的新群组名称已被另一个现有的群组使用。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>应用程序 创建 重名 群组 没有 提供 警告 提示 无意 创建 现有 群组 名称 相同 新 群组 混淆 不便 没有 明确 反馈 机制 通知 新 群组 名称 现有 群组</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>在群组设置中，群主尝试修改群的名称。然而，当修改完成后，只有在进入“群组设置”页面时才能看到新的群名称，而在聊天界面中，群名称并未更新，仍显示为旧的名称。</t>
+          <t>一个用户能够同时创建多个有相同名称和相同成员的群</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>能够 创建 多个 相同 名称 相同 成员 群</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>在查找不存在的群组时，系统未能提供任何反馈结果或提示。</t>
+          <t>在软件的群聊名称输入区域，用户能够输入包含特殊字符的名称。这可能会导致软件处理这些名称时出现问题，从而影响其安全性和稳定性。例如，某些特殊字符可能被误解为代码或命令，导致不必要的操作或错误。此外，如果特殊字符过多或过于复杂，可能会增加存储和管理群聊名称的复杂性，从而降低软件的效率和可靠性。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>软件 群聊 名称 输入 区域 能够 输入 包含 特殊字符 名称 软件 处理 名称 出现 安全性 稳定性 特殊字符 误解 代码 命令 不必要 错误 特殊字符 过多 过于 复杂 增加 存储 管理 群聊 名称 复杂性 降低 软件 效率 可靠性</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>图中显示了一个手机界面，其中以“q”开头的几个群都是同一个用户邀请的。然而，系统没有能够正确识别出这些群是由同一个用户创建的，导致了重复创建的问题。此外，那些不是用户自己创建的群也被归类在了“我的群组”中。</t>
+          <t>群名称可以重名，查找群通过群名称时会遇到麻烦</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>群 名称 重名 查找 群 群 名称 时会 遇到 麻烦</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>该软件在用户选择添加已存在于群组中的用户时，没有正确地置灰处理，导致用户在多次尝试后才能收到“该用户已经在群组”的提示。此外，提示信息并不明确指出是哪一个用户已在群组中，这增加了用户的困扰和疑惑。这种不一致的行为模式和不清晰的反馈机制导致了用户体验的下降。</t>
+          <t>该软件在创建群组的过程中存在一个明显的bug。同一群主尝试创建两个具有相同名称的群组，这违反了软件的规则或逻辑，导致无法正确执行操作。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 明显 一群 主 创建 两个 具有 相同 名称 群组 违反 软件 规则 逻辑 无法 正确 执行</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>在软件的群查找功能中，出现了功能性错误。当用户尝试筛选显示群时，结果展示的是用户已经加入的群，而不是应用内存在的群组。这可能导致用户难以找到他们需要的信息或群组，从而影响用户体验。</t>
+          <t>该问题描述了一个软件或应用程序的群名称输入功能存在边界值过大的问题。当用户尝试输入一个非常长的群名称时，系统可能无法正确处理或显示这个名称，导致输入失败或显示错误。这个问题可能会导致用户体验不佳，因为用户可能无法为群组设置一个合适的名称。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>软件 应用程序 群 名称 输入 边界值 过大 输入 非常 长 群 名称 系统 无法 正确处理 名称 输入 失败 错误 不佳 无法 群组 设置 合适 名称</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>在聊天应用的主页面直接点击搜索，系统仅能显示已加入的用户和群组，无法检索到未加入的群组。然而，进入“群组”选项后再次点击搜索，则可以检索到所有群组的信息，包括那些用户尚未加入的群组。</t>
+          <t>在创建群的界面中，当用户使用换行符作为群名称或描述的一部分时，系统会将换行符自动替换为空格。这导致了保存后的群信息与原始输入的布局不一致。具体来说，如果用户在群名称或描述中使用了换行，保存后该部分内容会变为一行，而不是多行显示。这可能会给用户带来困扰，因为他们预期的是多行的布局效果。因此，建议对此功能进行优化，直接禁止用户在创建群时使用换行符，以确保输出内容的一致性和用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>创建 群 界面 换行符 群 名称 一部分 系统 换行符 自动 替换 空格 保存 群 信息 原始 输入 布局 一致 具体来说 群 名称 换行 保存 后该 部分 内容 变为 一行 多行 带来 困扰 预期 多行 布局 效果 建议 对此 进行 优化 禁止 创建 群时 换行符 确保 输出 内容 一致性</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>该应用程序在创建群组时，没有提供关于群名称合法性的提示或样例。用户输入的名称可能会被立即接受，而不经过任何验证或示例展示。这可能会导致用户创建不符合平台规定的名称，从而引发潜在的问题或争议。</t>
+          <t>该界面的“创建群组”部分存在视觉设计问题。蓝色的群名称字体过小，与其它元素相比显得过于微弱，导致整个界面的视觉平衡被破坏。这种设计不一致可能会给用户带来困扰，影响他们使用该功能的体验。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>界面 创建 群组 部分 视觉 设计 蓝色 群 名称 字体 元素 相比 显得 过于 微弱 整个 界面 视觉 平衡 破坏 设计 一致 带来 困扰</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>该软件在进入朋友页面并尝试创建群组时存在显示问题。具体来说，当用户点击更多选项进入创建群组页面时，页面并未显示预期的好友列表，而只有最近联系人的信息。尽管如此，创建群组的功能似乎仍然可以正常使用。</t>
+          <t>进行完操作2后A，B两方听到的与操作1相同</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>进行 完 A B 两方 听到 相同</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>在进入聊天界面并点击群组图标后，进入“我的群组”界面。在该界面右上角点击三道杠图标以发起群聊。通过重复步骤5到8，可以成功创建群组，名称为“123”。然而，当尝试再次创建具有相同名称的新群组时，系统未能给出预期的提示信息“该群已创建，请更换群名称”。相反，测试者能够无障碍地创建具有相同名称的群组。这表明系统在处理群组名称重复的情况时存在缺陷。</t>
+          <t>该软件界面显示了三个群组，每个群组的名称都是相同的。这可能导致用户在搜索特定群组时感到困扰，因为无法从名称上区分它们。此外，由于群组名称的重复，用户可能需要额外步骤来找到他们想要的群组，从而增加了操作复杂性。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>界面显示 三个 群组 每个 群组 名称 相同 搜索 特定 群组 感到 困扰 无法 名称 区分 群组 名称 重复 额外 找到 想要 群组 增加 复杂性</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>在创建群成功后，该功能界面中缺少了“管理员设置”这一选项，导致用户无法为新创建的群组设置管理员。这在多人大群的情况下尤其不便，因为缺乏管理员设置可能会导致群组管理困难，影响群组的正常运行与沟通效率。</t>
+          <t>该软件在创建群组时存在一个bug。当用户新建群聊并设置名称和加群方式后，软件界面似乎被锁定了，不允许用户继续添加或编辑其他信息。此外，原本的设计意图是允许群建设者在完善群介绍等信息后再创建群聊，以便于所有入群的成员了解群的目的和活动内容。但目前的软件设计似乎没有实现这一功能，导致用户无法在创建群聊前对群的介绍和其他相关信息进行编辑或完善。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>创建 群组 新建 群聊 设置 名称 加群 方式 软件 界面 锁定 允许 继续 添加 编辑 信息 原本 设计 意图 允许 群 建设者 完善 群 介绍 信息 创建 群聊 入群 成员 了解 群 目的 活动 内容 目前 软件设计 没有 实现 这一 无法 创建 群聊 前 群 介绍 相关 信息 进行 编辑 完善</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>该软件在查找群组功能上存在缺陷。用户无法通过输入群组编号来搜索特定的群组，这违反了用户的期望和软件的功能要求。</t>
+          <t>该应用程序似乎没有实施适当的群组创建限制，导致同一用户可以无限次地创建包含相同用户的同名群组。这可能会导致系统资源的过度消耗，并可能导致用户界面的混乱和难以管理。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>应用程序 没有 实施 适当 群组 创建 限制 同一 无限 次地 创建 包含 相同 同名 群组 系统资源 过度 消耗 用户界面 混乱 难以 管理</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>当好友邀请本人加入群聊时，不能主动拒绝，直接就出现在群组中，只可以选择退出群组，不能够在一开始被邀请时拒绝加入。</t>
+          <t>填写群名称时，填写多行，错误删除时，一次删除了一行。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>填写 群 名称 填写 多行 错误 删除 一次 删除 一行</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>该软件在群名称管理方面存在逻辑错误，允许用户添加具有相同名称的群组。当尝试创建或添加与现有群组同名的新群组时，系统并未提供任何提示信息，表明了这一冲突。这违反了软件的设计原则和预期功能，可能导致用户混淆和不便。</t>
+          <t>在创建群聊时，系统未能有效识别并提醒用户关于相同名称的重名现象。这可能会导致用户在不知情的情况下创建具有相同名称的两个群聊，从而引起混淆和不便。例如，在图像中显示了两个名为“群聊1”的群聊，这可能会造成用户的困扰。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>创建 群聊 系统 未能 有效 识别 提醒 相同 名称 重名 现象 不知情 情况 创建 具有 相同 名称 两个 群聊 引起 混淆 不便 两个 名为 群聊 群聊 造成 困扰</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>在创建群组或加入群组的步骤中，当用户尝试添加成员或加入群组时，系统并未区分账号和昵称。这导致无论用户输入的是账号还是昵称，系统都会将其视为同一实体进行查找，从而大大增加了搜索结果的数量。这种设计缺陷可能导致用户体验不佳，并增加操作的时间成本。</t>
+          <t>创建群组时，群组名称没有过滤。一些非法等词汇可以设置，</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>创建 群组 群组 名称 没有 过滤 非法 词汇 设置</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>在加入群组步骤4完成后：想要加入的群组管理员不处理或延迟处理加群请求，而申请方只能等待通知，无其他通知。</t>
+          <t>在创建群聊时，用户发现即使两次尝试创建完全相同的群（包括相同的群成员和名称），系统并未提供任何提示或警告。这可能导致了重复创建的问题，而没有适当的反馈机制来指导用户避免这种情况。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>创建 群聊 发现 两次 创建 完全相同 群 包括 相同 群 成员 名称 系统 并未 提供 提示 警告 重复 创建 没有 适当 反馈 机制 指导 避免 情况</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>该软件在创建群组的过程中出现了一个bug。当用户尝试创建一个只有创建者自己的群组时，系统无法识别任何最近联系人或没有联系人的情况。因此，用户无法选择好友来参与这个群组，也无法直接进入下一步操作。这导致了一个单人群组无法被成功创建的问题。</t>
+          <t>新建群-群命名可以重复已用的群名称</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>新建 群 - 群 命名 重复 已用 群 名称</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>该软件的群组设置功能存在漏洞。具体表现为，任何拥有足够权限的用户都能邀请自己的好友加入某个群组，这可能导致广告信息泛滥。这种设计可能会破坏群组的隐私和专业性，增加用户接收不相关或有害信息的风险。</t>
+          <t>群名称过长时,没有超长提示.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>群 名称 过长 , 没有 超长 提示 .</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>该软件界面中，用户在搜索群组时，系统没有提供历史搜索记录的展示功能。当用户尝试加入一个群组但失败后，他们需要重新进行搜索，这增加了用户的额外操作负担。此外，即使用户已经成功加入了某个群组，相关的群组信息并没有被优先展示出来，这可能导致用户难以快速找到并查看他们已加入的群组。</t>
+          <t>用户在修改用户名后，在群中的名称有时不能及时刷新</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>修改 用户名 群中 名称 不能 及时 刷新</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>根据问题描述和对应的图片，这个软件界面在执行搜索操作时出现了错误。当用户试图查找名为“地瓜土豆”的群组时，系统错误地显示了两个重复的群组名称，而不是一个。这可能是因为系统的搜索算法存在问题，或者是数据存储和检索过程中的错误。这个问题可能会导致用户无法正确找到他们想要加入的群组，从而影响用户体验。</t>
+          <t>在搜索群时，如果组群名称重复用户无法区分</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>搜索 群时 组群 名称 重复 无法 区分</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>在jayme的朋友界面中，当用户试图查看“群组”选项并浏览邀请消息时，系统似乎没有正确处理大量的邀请请求。预期的操作是“群消息助手”会提示用户有某用户邀请他们加入某个群组，并允许用户选择“同意”或“拒绝”。但在实际情况下，用户被直接拉入了许多群组，没有得到任何确认或选择的机会。这导致了用户体验的混乱和不便，因为用户可能并未意识到他们已经加入了这些群组。</t>
+          <t>这个bug描述的问题是，当用户在尝试创建名称为"555"的群聊时，系统没有正确地告知用户已经创建过该群，导致用户可以多次重复创建同名的群聊。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>创建 名称 " 555 " 群聊 系统 没有 正确 告知 创建 过该 群 多次重复 创建 同名 群聊</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>该软件界面在当前版本下，加群功能的部分显示出现了问题。具体来说，用户在尝试加入群组时，原本应该展示的“热门群推荐”信息并没有出现，这可能导致用户无法看到并选择他们可能感兴趣的群组。这个问题可能是由于软件的版本更新或维护导致的临时性故障，需要开发者进一步检查和修复。</t>
+          <t>该软件界面显示，当用户尝试创建与已有群名称相同的新群时，系统未能成功创建，而是提示“创建失败”。这可能是因为系统的群名称唯一性检查机制出现了问题。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>界面显示 创建 已有 群 名称 相同 新 群时 系统 未能 成功 创建 提示 创建 失败 是因为 系统 群 名称 唯一性 检查 机制 出现</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，用户界面缺乏必要的个性化功能。具体来说，当尝试填写群组信息时，没有提供上传群头像的选项，这使得用户无法为他们的群组添加个人标识或特色。此外，该界面也没有提供任何其他可能增强聊天体验的个性化设计元素。这种设计的缺失可能导致用户体验上的单调和不完整感，从而影响用户对应用的整体满意度。</t>
+          <t>该问题描述了一个软件界面的bug，即在用户在好友或群组中更改了他们的用户名后，其他群组成员仍然看到旧的用户名而不是新修改的名称。这可能表明软件在更新用户显示名称方面存在延迟或错误。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>软件 界面 好友 群组 更改 用户名 群 组成员 仍然 看到 旧 用户名 新 修改 名称 表明 软件 更新 名称 方面 延迟 错误</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>问题描述：用户在尝试加入群组时，没有看到热门推荐的群组选项。</t>
+          <t>创建群聊时，填写群聊名称。限制长度为64个字符，但是在用户第一次填写群聊名称时没有指明，而仅仅在创建群聊之后，修改群名称才出现明确的字样要求，如图</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>创建 群聊 填写 群聊 名称 限制 长度 64 个字符 第一次 填写 群聊 名称 没有 指明 仅仅 创建 群聊 之后 修改 群 名称 出现 明确 字样 要求 如图</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>问题描述：在尝试建立群组时，用户只能输入群组名称，但系统并未提供任何关于群组名称长度的提示信息。当用户创建群组时，他们可能不清楚群组名称的最大允许字符数，这可能导致无法成功创建群组或需要多次尝试才能找到合适的名称长度。</t>
+          <t>在群组中，用户的显示名称与其个人主页上显示的名称不一致。具体表现为，在群组中用户显示为默认昵称，但点击其头像进入个人主页时，该用户的名字已经更新为修改后的名称。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>群组 名称 个人主页 名称 一致 具体表现 群组 默认 昵称 点击 头像 进入 个人主页 名字 更新 修改 名称</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>该软件的群组创建功能似乎存在一个bug。根据图片显示，当用户试图创建一个新群组时，系统要求添加至少一个好友才能完成此操作。然而，如果用户没有已添加的好友，则无法完成群组的创建，这显然阻止了用户使用这一功能。这可能是由于软件设计中的某些逻辑错误或配置问题导致的。</t>
+          <t>在群组命名有问题。在我的群组列表中出现两个完全相同的群组名称，无论是群组人员是否相同都可以名称相同，影响使用。当我用群名称搜索群是出现不止一个令人混淆</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>群组 命名 群组 列表 出现 两个 完全相同 群组 名称 无论是 群组 人员 是否 相同 名称 相同 群 名称 搜索 群是 出现 不止 令人 混淆</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>该bug表现为在搜索群组时，系统无法准确区分出昵称和头像相同的群组。特别是当用户尝试通过模糊匹配搜索群号时，结果并不明确，导致用户难以确定具体加入哪一个群组。</t>
+          <t>问题描述：当用户在创建名为“默默默默”的群聊后，尝试再次创建一个同名的群聊时，系统未能阻止该操作。尽管名称重复，但群聊仍被成功创建。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>创建 名为 默默 默默 群聊 再次 创建 同名 群聊 系统 未能 阻止 名称 重复 群聊 成功 创建</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>该软件界面在群组搜索功能上存在缺陷。当用户尝试查找并加入特定的群组时，由于系统未能正确区分具有相同名称的不同群组，导致用户可能会错误地加入他们原本意图加入的群组之外的其他同名群组。这种设计问题可能导致用户的混淆和不便，增加了误操作的可能性。</t>
+          <t>当用户尝试创建两个具有相同名称的群组时，系统没有提供任何警告或提示信息来告知用户这种操作可能会导致命名冲突。此外，在显示群组列表时，系统未能区分这两个相同的群组，导致它们被错误地排列在一起，且布局混乱，无法为用户提供清晰的视觉指引。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>创建 两个 具有 相同 名称 群组 系统 没有 提供 警告 提示信息 告知 命名 冲突 群组 列表 系统 未能 区分 两个 相同 群组 错误 排列 一起 布局 混乱 无法 提供 清晰 视觉 指引</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，当用户尝试使用已经存在的群名称进行创建时，系统没有给予明确的反馈提示，导致用户无法区分当前操作的群组是否已存在。这可能会导致用户重复创建相同的群组，从而造成混淆和不便。</t>
+          <t>群名称的创建没有规范，任何符号都可以创建</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>群 名称 创建 没有 规范 符号 创建</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>问题描述：
-该软件在创建群组时，用户成功输入了群名称并填写了相关信息后保存。但在输出反馈中，没有提供重名提醒导致创建失败的信息。这意味着即使两个群的名称重复，系统也会默认为一个群创建成功，而不会给出任何提示或警告。这样的bug可能会导致用户无意中创建了多个相同名称的群组，给用户带来不便。</t>
+          <t>1.步骤重现
+     (1)进入聊天界面;
+     (2)点击进入一个群聊;
+     (3)修改群名称;
+     (4)修改的名称和已经存在的名称一致;
+2.期望结果
+       提示已经存在该昵称。
+3.实际结果
+     修改成功。这样当群成员一样，就会存在冗余。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>. 重现 
+           ( ) 进入 聊天 界面 ; 
+           ( ) 点击 进入 群聊 ; 
+           ( ) 修改 群 名称 ; 
+           ( ) 修改 名称 名称 一致 ; 
+ . 期望 
+               提示 昵称 
+ . 
+           修改 成功 当群 成员 冗余</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>在软件的用户管理界面中，用户尝试添加成员到群组时，系统允许一次选择超过20个用户。然而，当用户点击确认创建群组的按钮后，系统才会显示一个提示信息，告知用户请求的数据超出了系统的默认限制。这个bug可能会导致用户在创建新群组时遇到问题，因为他们可能不会立即意识到系统的限制。</t>
+          <t>用户名称修改之后，在用户资料页面显示的还是之前的名称</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>名称 修改 之后 资料 页面 之前 名称</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>在群组设置页面中，没有显示群组成员的上限为500人的提示信息。</t>
+          <t>搜索好友，名称不是按名称匹配度显示查询结果的</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>搜索 好友 名称 名称 匹配 度 查询</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>搜索已加入的群名称时系统自动匹配的群组没有对于已加入群组的相关提示。</t>
+          <t>这个软件界面显示了一个群组的名称编辑功能，允许用户修改群名称。然而，这种设计可能导致用户难以通过搜索和重新进入他们之前创建或加入的群组，因为一旦群名称被修改，原始的名称可能不再与用户的记录匹配。这可能会对用户的使用体验造成一定的困扰，尤其是如果他们依赖原始名称来快速定位特定的群组时。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>软件 界面显示 群组 名称 编辑 允许 修改 群 名称 设计 难以 搜索 重新 进入 之前 创建 加入 群组 群 名称 修改 原始 名称 不再 记录 匹配 造成 一定 困扰 尤其 依赖 原始 名称 快速 定位 特定 群组</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>该应用程序存在一个bug，导致在创建了使用特定群名称“ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh”的群后，用户仍然可以使用相同的群名来创建新的群。这违反了正常的群组命名规则，可能导致混淆和重复的群组。</t>
+          <t>该软件界面显示的群名称设置功能中，没有明确的提示表明字数限制的存在。用户在尝试设置一个较长的群名称时，可能会发现名称超出预期长度而无法成功保存，导致用户体验不佳。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>界面显示 群 名称 设置 没有 明确 提示 表明 字数 限制 设置 较长 群 名称 发现 名称 超出 预期 长度 无法 成功 保存 不佳</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>在软件的群聊功能中，用户反馈存在一个bug，即部分群组无法被找到或检索到。这可能是由于软件内部的某些逻辑错误或配置问题导致的，导致用户无法通过预期的方式访问他们想要查找的群组。</t>
-        </is>
+          <t>创建群时，可以创建相同名称的群组，不会出类似“名称”已被用的提醒</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>创建 群时 创建 相同 名称 群组 不会 出 类似 名称 提醒</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B445"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>特殊字符</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>命名</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>该应用程序在创建重名群组时没有提供任何警告或提示，导致用户可能无意中创建了与现有群组名称相同的新群组。这可能会导致混淆和不便，因为没有明确的反馈机制来通知用户他们的新群组名称已被另一个现有的群组使用。</t>
-        </is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>一个用户能够同时创建多个有相同名称和相同成员的群</t>
-        </is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>打开查找群功能没有推荐群组，不够完美；</t>
-        </is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>该软件在用户尝试创建群组时，存在一个网络连接不可用的bug。当用户先选择联系人后关闭网络，然后点击确定按钮，系统并未立即提示网络连接不可用，而是在进入创建群组界面并尝试创建时才显示此错误消息。这意味着用户在没有网络连接的情况下被允许进入创建界面，这可能导致他们在尝试创建群组时遇到问题。</t>
-        </is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>群名称可以重名，查找群通过群名称时会遇到麻烦</t>
-        </is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>该软件在创建群组的过程中存在一个明显的bug。同一群主尝试创建两个具有相同名称的群组，这违反了软件的规则或逻辑，导致无法正确执行操作。</t>
-        </is>
+          <t>重名</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>该软件在建群设置权限时存在逻辑错误。当设置为“不允许加入该群”时，用户在尝试创建群组时仍然被要求选择好友才能完成操作，这导致该权限的实际效果并不显著。</t>
-        </is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>问题描述：
-在手机的群组列表中，存在一个异常情况，即有一个群组的名称由64个汉字或66个英文符号组成。这与正常的群组名称长度限制不符，通常群组名称的长度限制为30个汉字或30个英文字符。这种情况可能是由于某种错误或系统故障导致的，需要进一步调查和修复。</t>
-        </is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>问题描述：该软件界面显示，用户在尝试创建群组时，系统没有阻止或提示用户不能创建与已有同名的群组。这意味着用户可能会无意中或错误地重复创建一个已经存在的群组，导致数据冗余和潜在的管理混乱。</t>
-        </is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>新建群组时未经他人允许便将他人加入群组</t>
-        </is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>该软件界面显示的群组设置中，当用户尝试更改群主名称后，系统未能正确更新群主的名称。在“群组设置”部分，尽管用户已经更改了群主的昵称，但群主的名称仍然显示为默认的昵称，而不是用户自己设定的新昵称。</t>
-        </is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>根据提供的问题描述和图片，这个软件Bug表现为在搜索并尝试加入一个特定的群组时，查找功能失败。用户按照预期的步骤进行操作，但实际结果与预期不符，无法成功找到该群组。这可能意味着软件在处理群组搜索请求和用户界面交互方面存在问题，导致用户无法完成他们原本想要的操作。</t>
-        </is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>问题描述：
-该软件在用户创建群组并仅添加一个成员的情况下，不应允许其成功创建。然而，实际测试中，当创建一个名为“测试”的群组并只添加一个成员时，群组竟然被成功创建。这与预期输出不符，导致用户体验不佳，可能会误导用户认为可以随意创建群组，即使人数不足。</t>
-        </is>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>该软件在用户尝试邀请大量好友加入群组时出现了系统错误。具体表现为，当用户尝试邀请超过一定数量的好友时，系统无法完成创建群组的操作。同时，由于弹窗出现的速度过快，导致无法进行截图以记录问题详情。这可能导致用户无法正常使用群组功能，从而影响其使用体验。</t>
-        </is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>在群聊中，当其他所有成员都退出后，只剩下一人时，该群组并没有解散。此外，这个群组无法被搜索到，无论是通过群的名称还是群的号码。这意味着存在一种情况，即有人可能无法加入此群组。</t>
-        </is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>在添加群组的过程中，用户在搜索栏中输入不存在的群组名称时，系统错误地显示了该群组。尽管群组实际上并不存在，但用户仍然可以在搜索结果中找到并尝试添加它。这可能导致用户混淆并浪费时间。</t>
-        </is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>该功能存在逻辑错误，群主在尝试转让群组时未能成功进行操作。</t>
-        </is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>该界面显示了一个群组设置的退出选项，当用户点击时，群组会从列表中移除，并产生一个消息提醒。同时，群主在解散群组时也会触发类似的操作，即群组消失并有消息提醒。</t>
-        </is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>该软件在用户更新个人头像或名称后，只在其个人主页中反映这些更改，而在群组界面中仍然显示的是用户最初登录时的头像和名称。这意味着用户无法立即在群组中看到他们最新的资料更新。</t>
-        </is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>该软件在创建群组的过程中存在一个严重的bug。根据问题描述和图片内容，当用户尝试创建一个新的群组时，系统不仅允许用户从其好友列表中选择成员，还允许他们从系统中选择陌生人作为群组成员。这违反了用户的期望，因为创建群组的目的应该是让用户与他们的好友互动，而不是与他们不认识的陌生人。这种设计缺陷可能会导致用户的不满和隐私问题。</t>
-        </is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>问题描述：在尝试创建群组时，系统没有按照预期显示“成功创建群”的提示信息。当用户添加不同的好友后，系统对提示信息的展示存在不一致的情况，有的情况下只出现一次提示，而有的情况下则出现了两次。这可能表明系统的提示逻辑存在问题，或者是在不同情况下系统处理创建群请求的方式不一致。</t>
-        </is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>该软件界面显示用户在尝试加入群组时，有一个热门群推荐的栏目。然而，当用户点击进入这个栏目时，发现推荐内容为空白，没有任何群组信息或推荐。这可能会给用户带来困扰，因为他们无法从这个推荐列表中获取到有用的信息或找到感兴趣的群组。</t>
-        </is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>在软件界面中，查找加入群组的功能似乎出现了显示问题。当用户尝试查找并加入群组时，匹配到的群组信息并没有显示在预期的位置，而是跑到了屏幕的最下方。这可能导致用户在查找和操作时感到不便，可能需要滚动查看更多内容才能看到完整的群组列表。</t>
-        </is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>在这张图片中，用户正在使用一个群组设置界面，他们试图找到关于群人数上限的信息。然而，令人遗憾的是，这个界面似乎并没有提供群人数的上限信息。这可能意味着系统没有设定一个明确的人数上限，或者该上限信息未被清晰地展示给用户。这种设计可能会导致用户在管理大型群组时遇到困难，因为他们无法准确知道何时需要创建新的群组来容纳更多的成员。</t>
-        </is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>该界面的“创建群组”部分存在视觉设计问题。蓝色的群名称字体过小，与其它元素相比显得过于微弱，导致整个界面的视觉平衡被破坏。这种设计不一致可能会给用户带来困扰，影响他们使用该功能的体验。</t>
-        </is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>该软件的群组设置功能存在显示问题。用户在加入一个群组后，无法正确查看全部群名称和其他基本群资料。特别是当群名称超过64个字符时，只能显示部分内容，且无法完整展示所有群成员的信息。这违反了预期结果，即作为群成员应能查看全部群资料的要求。</t>
-        </is>
+          <t>现有</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>根据关键字搜索想要加进的群的时候，比如说“杰伦”，就出现了很多关于“杰伦”的群组，很难找到自己想要加的那个群组，布局很混乱。</t>
-        </is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>该软件在创建群组后出现了页面模糊的现象，这很可能是由于页面布局设计上的缺陷导致的。</t>
-        </is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>在创建群组并查看其设置后，发现群主显示的信息并非创建者本人。然而，在重新启动应用之后，群主的名称发生了不可预测的变化，这可能指向一个身份验证或信息更新的问题。</t>
-        </is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1，创建允许被任何人加入的群”测试群二”
-2，创建需管理员验证的群”测试群一”
-3，创建不被允许加入的群”测试群三”</t>
-        </is>
+          <t>开头</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>该软件在执行解散群组的操作时，没有提供必要的确认提示给用户。用户可能会因为误操作而失去对群组的控制，这可能导致数据丢失或沟通中断。</t>
-        </is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>该软件界面显示了三个群组，每个群组的名称都是相同的。这可能导致用户在搜索特定群组时感到困扰，因为无法从名称上区分它们。此外，由于群组名称的重复，用户可能需要额外步骤来找到他们想要的群组，从而增加了操作复杂性。</t>
-        </is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>该软件在创建群组时存在一个bug，即邀请好友加入群组的过程不需要受邀请方的同意。这导致了用户被莫名地拉入了许多群组，从而可能对他们的正常活动造成干扰。</t>
-        </is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>在软件的群组查找功能中，用户在搜索并查看查找到的群组信息时，无法明确区分哪些群组是已经加入的，哪些是未加入的。这导致了用户在查看结果时的混淆和不便。</t>
-        </is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>该软件在创建群组时存在一个bug。当用户新建群聊并设置名称和加群方式后，软件界面似乎被锁定了，不允许用户继续添加或编辑其他信息。此外，原本的设计意图是允许群建设者在完善群介绍等信息后再创建群聊，以便于所有入群的成员了解群的目的和活动内容。但目前的软件设计似乎没有实现这一功能，导致用户无法在创建群聊前对群的介绍和其他相关信息进行编辑或完善。</t>
-        </is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>该应用程序似乎没有实施适当的群组创建限制，导致同一用户可以无限次地创建包含相同用户的同名群组。这可能会导致系统资源的过度消耗，并可能导致用户界面的混乱和难以管理。</t>
-        </is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>该软件界面显示，用户无法找到或访问他们创建的群组。在“我的群聊”和“我的所有群”选项下，没有出现任何用户所创建的群组列表。这可能导致用户无法管理和与他们创建的群组中的其他成员互动。</t>
-        </is>
+          <t>平台</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>该软件在群组管理方面存在严重缺陷。首先，好友要求过于宽松，任何用户都可以被邀请进群，这可能导致大量无关用户的涌入，从而影响群组的专业性或私密性。其次，当其他用户邀请自己加入群组时，系统并未提供适当的确认步骤，导致用户在不知情的情况下被突然拉入群组，这可能引起用户的不满和困扰。此外，这种设计可能会增加垃圾信息的传播风险，并可能对用户的隐私安全构成威胁。总的来说，这个问题反映了软件在用户权限管理和信息安全方面存在的重大漏洞。</t>
-        </is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>在这款APP的群组页面，用户界面设计与预期的交互模式有较大的出入。与QQ群组页面相比，该APP的显示效果显得较为简陋和不直观，导致用户在查找和管理群组时可能会感到困惑或不便。例如，群组名称和成员数量的展示方式、群组图标的设计以及搜索功能的位置等都与主流的社交软件存在明显的差距，这可能会影响到用户的整体使用体验。</t>
-        </is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>在点击“我的群组”时，页面上没有任何提示信息表明用户没有群组或者页面未加载完成。这可能会让用户感到困惑，不清楚是因为他们没有创建任何群组，还是因为页面加载出现了问题。</t>
-        </is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>该软件在用户尝试搜索“测试”关键词时，出现了一个群列表。然而，在已加入的群组名称后面并没有显示“我的群”，这可能会给用户带来不便，因为用户无法直接识别哪些是他们已加入的群。这种设计上的缺陷可能导致用户在查找和管理自己的群组时遇到困难。</t>
-        </is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>在进行操作2时，用户发现系统允许仅勾选一个人来创建群组，这导致实际上只建立了两个人的群。按照常规逻辑，创建群组至少需要选择两个成员，但在这个场景中，用户只需勾选一个人即可完成创建。这可能导致了群组人数不足的问题，因此建议系统在用户尝试创建群组时，提示他们至少需要选择两个成员，以确保创建的群组至少有三个人。</t>
-        </is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>创建群组时，群组名称没有过滤。一些非法等词汇可以设置，</t>
-        </is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>在创建群聊时，用户发现即使两次尝试创建完全相同的群（包括相同的群成员和名称），系统并未提供任何提示或警告。这可能导致了重复创建的问题，而没有适当的反馈机制来指导用户避免这种情况。</t>
-        </is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>该软件界面中，用户在群主管理功能下，只能进行对已加入的群组或所有群组的查找操作。然而，当用户想要查找未加入的群组时，这一操作不可用，导致用户体验不佳。此外，该设计与搜索新群的功能存在重复，使得用户可能会感到困惑，不知道哪个功能是用于添加新群组的。</t>
-        </is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>该软件在处理不同群组消息通知时存在逻辑错误。当用户在当前聊天页面收到另一个群组的消息通知并点击进入时，系统错误地新建了一个聊天页面而不是切换到目标群组的聊天页面，这与用户的正常使用习惯不符。此外，如果用户在A群组的聊天页面下收到B群组的消息并点击进入，之后再收到A群组的消息并点击，系统会错误地新建一个A群组的聊天页面而非切换回之前的聊天页面，这进一步增加了用户操作的复杂性和不便。</t>
-        </is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>该bug描述为：A用户在建立群组后，通过点击右上角的“人头”进入群组设置页面，并尝试通过“添加群成员”功能来邀请B用户加入。但在B用户没有明确同意的情况下，系统错误地将B用户直接拉入群组中，导致B用户收到了不必要的邀请提示。这个问题可能是由于系统内部的通信错误或者权限设置不当导致的。</t>
-        </is>
+          <t>换行符</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>该bug描述的问题是，当用户在尝试加入群组时，如果提供的申请理由过于简短或不完整，系统似乎没有适当地处理这些信息，导致用户只能看到输入内容的一小部分。这可能使得用户难以提供充分的说明来表达他们加入群组的原因，从而影响他们的体验和群组管理的效率。</t>
-        </is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>该软件在创建群组时存在逻辑错误。用户无法创建一个只包含一个人（即1人）的群组，这违反了正常的功能预期。此外，尽管不能创建只有一个人的群组，但软件允许群主将群成员数量删除到只剩一个人，这与软件的设计目的不符。</t>
-        </is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>在搜索群名加群时，用户遇到了一个重复群名的问题。当尝试搜索特定的群组名称时，系统返回了多个重名的群组选项，而不是唯一的那个。这可能导致用户混淆并错误地加入了他们原本意图加入的群组。</t>
-        </is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>该应用程序在创建群组功能上存在缺陷。用户在尝试创建群组并添加其他用户时，系统未能正确执行好友验证流程。具体来说，即使不是好友的用户也可以被添加进群组，这可能导致了安全和隐私的问题，给用户带来了困扰。</t>
-        </is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>这个bug描述了一个软件的群组功能问题。当用户被其他人拉入一个群组时，即使没有得到用户的明确同意，该用户仍然可以直接进入该群组。这可能导致用户感到不安或担忧他们的隐私和安全。</t>
-        </is>
+          <t>目的</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>问题描述：在测试中，我发现了一个严重的功能缺陷。当尝试将用户拉入群组时，系统并未要求该用户的同意。这可能导致了尴尬的情况，例如，用户可能被随意地从搜索结果中选中并加入群组，而他们甚至不知道这个操作的发生。这种设计缺陷使得两个不同的账号就能够进行此类测试，从而绕过了正常的验证流程。</t>
-        </is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>在创建群组并尝试添加成员的过程中，系统并未提供给用户任何确认或拒绝加入的选项。这意味着，即使A不想加入该群组，如果B试图将A添加到群组中，A仍会被自动加入，这显然不符合用户的期望和习惯。这种情况可能导致用户的困扰和不满，从而影响整体的用户体验。</t>
-        </is>
+          <t>多行</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>缺少群二维码，如果群组内有群二维码，就可以避免出现打字输入群组名称或者输入群号的麻烦。</t>
-        </is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>这个bug描述的问题是，当用户在尝试创建名称为"555"的群聊时，系统没有正确地告知用户已经创建过该群，导致用户可以多次重复创建同名的群聊。</t>
-        </is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>该软件界面显示，当用户尝试创建与已有群名称相同的新群时，系统未能成功创建，而是提示“创建失败”。这可能是因为系统的群名称唯一性检查机制出现了问题。</t>
-        </is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件界面的bug，即在用户在好友或群组中更改了他们的用户名后，其他群组成员仍然看到旧的用户名而不是新修改的名称。这可能表明软件在更新用户显示名称方面存在延迟或错误。</t>
-        </is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>该软件在处理群组列表和搜索结果时存在显示顺序不一致的问题。在“我的群组”列表中，群组显示为倒序排列，而在进行群组搜索时，结果却按照正常顺序展示。这种不一致性可能会给使用者带来混淆，影响用户界面的用户体验。</t>
-        </is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>在群组中，用户的显示名称与其个人主页上显示的名称不一致。具体表现为，在群组中用户显示为默认昵称，但点击其头像进入个人主页时，该用户的名字已经更新为修改后的名称。</t>
-        </is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>在群组命名有问题。在我的群组列表中出现两个完全相同的群组名称，无论是群组人员是否相同都可以名称相同，影响使用。当我用群名称搜索群是出现不止一个令人混淆</t>
-        </is>
+          <t>个人主页</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>设置为不可加入的群组无法在加入群组中搜索到，如果可以搜索到但把加入群聊按钮禁用会比较好。</t>
-        </is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>该软件在执行“加入群聊”操作后，搜索结果显示的群组排列逻辑存在错误。用户期望精确匹配的群组能够在列表的最前方显示，但在实际运行中，这些匹配的群组却出现在了列表的末尾。此外，列表是按照创建时间排序的，这导致即使匹配的群组创建时间较早，它们也可能被排在最后。这种排列顺序与用户的直观预期不符，可能会导致用户在查找特定群组时感到困惑和不便。</t>
-        </is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>问题描述：当用户在创建名为“默默默默”的群聊后，尝试再次创建一个同名的群聊时，系统未能阻止该操作。尽管名称重复，但群聊仍被成功创建。</t>
-        </is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>当用户尝试创建两个具有相同名称的群组时，系统没有提供任何警告或提示信息来告知用户这种操作可能会导致命名冲突。此外，在显示群组列表时，系统未能区分这两个相同的群组，导致它们被错误地排列在一起，且布局混乱，无法为用户提供清晰的视觉指引。</t>
-        </is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>在尝试加入一个已存在的群组时，系统似乎没有阻止用户重复加入的操作。当用户搜索并准备加入一个群组时，系统未能正确识别该用户已经加入了相同的群组，导致用户可以无限制地反复添加自己到同一个群组中。</t>
-        </is>
+          <t>群是</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>群名称的创建没有规范，任何符号都可以创建</t>
-        </is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>在创建新群的步骤中，第一步是选择联系人。然而，这个设计没有考虑到新用户可能没有任何联系人的情况。这可能会导致新用户在尝试创建群组时遇到困难，因为他们无法完成第一步。</t>
-        </is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>在聊天界面的每个群组名称后面，应该显示该群组共有多少人，以便用户了解群组的规模。例如，如果现有的群组A中有15个人，那么该群组应正确显示为A(15)，以直观地展示其成员数量。</t>
-        </is>
+          <t>完全相同</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>问题描述：
-在jayme的朋友界面中，当用户选择“群组”并尝试通过“加入群”功能时，期望能看到推荐的热门群或相同爱好的群。但实际结果中，该功能并未展示任何推荐群组，导致用户无法根据推荐找到他们可能感兴趣的群组。</t>
-        </is>
+          <t>类似</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>该软件界面中的群组搜索功能存在明显缺陷。在用户尝试搜索已加入的群组时，系统并未提供任何视觉或文本提示表明这些群组是已加入的。这导致用户无法直观地识别哪些群组是他们已经加入的，从而增加了用户的困惑和操作难度。这种设计不符合常规的用户交互习惯，可能会对用户体验造成负面影响。</t>
-        </is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>该软件在创建群组或修改群组成员信息时，功能设计存在缺陷。具体表现为，用户在尝试添加新成员到群组或修改自己作为群组成员的信息（如名称和头像）时，未能找到相应的操作选项，导致用户体验不佳。这种设计上的疏忽可能会影响用户对软件的满意度和使用频率。</t>
-        </is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>该软件界面显示了一个群组管理功能，其中包含了用户创建、管理的以及添加的群组。然而，这些分组似乎并没有按照预期的方式展示，导致用户体验不佳。特别是“我创建的群”、“我管理的群”和“我添加的群建议分组”，它们应该以一种直观和可视化的方式呈现给用户，以方便用户快速识别和访问。但在当前的界面中，这些分组的展示并不清晰，可能会给用户带来混淆和不便。</t>
-        </is>
+          <t>旧</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>用户在被邀请加入群组时，没有征求用户确认</t>
-        </is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>这个软件界面显示了一个群组的名称编辑功能，允许用户修改群名称。然而，这种设计可能导致用户难以通过搜索和重新进入他们之前创建或加入的群组，因为一旦群名称被修改，原始的名称可能不再与用户的记录匹配。这可能会对用户的使用体验造成一定的困扰，尤其是如果他们依赖原始名称来快速定位特定的群组时。</t>
-        </is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>该软件在执行群组创建过程中存在一个关键性的错误。当用户尝试将群组人数设置为超过20人时，系统未能及时阻止这一操作，导致用户可以继续添加成员，即使已经超出了允许的最大人数。直到用户试图完成创建过程并点击“完成”时，系统才给出错误提示。这表明在用户界面的交互设计上存在问题，没有为用户提供适当的反馈或警告，以告知他们所进行的操作可能会导致错误或问题。此bug可能会对用户体验造成负面影响，并可能导致数据存储和处理方面的潜在问题。</t>
-        </is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>问题描述：当用户尝试在断开手机网络的情况下，通过“朋友-我的群组-更多-加入群”路径跳转到查找群页面并进行群号搜索时，系统没有提供任何关于网络异常或网速较慢的提示信息。这可能导致用户误以为他们的操作是成功的，但实际上由于网络连接问题，他们可能无法成功加入群组。</t>
-        </is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>创建群组时，在群信息设置处，左上角的群名有瞬间的延迟，会从相对左下方向右上方移动。</t>
-        </is>
+          <t>合适</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>创建群时，可以创建相同名称的群组，不会出类似“名称”已被用的提醒</t>
-        </is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>在“朋友”界面、群聊界面的搜索框不可以搜索未加入的群组，只有群聊里“加入群”的界面中才可以搜到为加入的群组。</t>
-        </is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>进行操作3后，当用户点击已加入的群组后，会直接进入聊天页面，而不显示出该群组的相关信息，影响用户体验。</t>
-        </is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>加入一个群的时候群简介不多，而且看不到群组部分人员啊 ，不能了解到更多信息， 画面看上去比较空洞。</t>
-        </is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>完善</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>介绍</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>请</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>规范</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>检测</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>非法</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>过滤</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>实施</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>无意</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>一行</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>默默</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>换行</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>一部分</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>后该</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>替换</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>一致性</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>锁定</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>对此</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>微弱</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>两方</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>听到</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>平衡</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>字体</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>组群</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>不止</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>如图</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>字样</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>仅仅</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>指明</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>检查</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>唯一性</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>令人</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>定位</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>度</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>资料</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>指引</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>多次重复</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>过该</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>过度</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>系统资源</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>次地</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>建设者</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>消耗</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>已用</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>超长</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>词汇</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>当前情况</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>粘贴</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>汉字</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>为群</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>不合理</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>不仅仅</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>预见</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>涉及</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>合理性</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>改进</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>图中</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>归类</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>空群</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>明确规定</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>停留</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>过大</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ceshi</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>四次</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>开发人员</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>注意</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>对群</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>大桥</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>gduit</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>误入</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>省略号</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>代替</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>社区</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>协议</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>合法</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>字</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>文字说明</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>模糊不清</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ubwuxbsjxbxjxhsjsbsvshshsbsbbsbwbsjshwjwhwbshsbxbbxbxbxbdbdbdhwjsuwh</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>安全性</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>命令</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>过多</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>复杂</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>可靠性</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>一群</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>主</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>边界值</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>省略</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>截断</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>忽视</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>尊重</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>合法性</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>或样</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>例</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>示例</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>争议</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>三道</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>杠</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>更换</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>测试者</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>无障碍</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>排</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>第一</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>所要</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>却排</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>较长</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
